--- a/Data_Driven/updateAddress/update_address.xlsx
+++ b/Data_Driven/updateAddress/update_address.xlsx
@@ -449,10 +449,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -519,55 +519,35 @@
       </c>
       <c r="K1" s="4" t="inlineStr">
         <is>
-          <t>provinceCityContactId</t>
+          <t>fatherName</t>
         </is>
       </c>
       <c r="L1" s="4" t="inlineStr">
         <is>
-          <t>districtContactId</t>
+          <t>fatherYearOfBirth</t>
         </is>
       </c>
       <c r="M1" s="4" t="inlineStr">
         <is>
-          <t>personalPhoneNumber</t>
+          <t>fatherJob</t>
         </is>
       </c>
       <c r="N1" s="4" t="inlineStr">
         <is>
-          <t>houseNumber</t>
+          <t>motherName</t>
         </is>
       </c>
       <c r="O1" s="4" t="inlineStr">
         <is>
-          <t>fatherName</t>
+          <t>motherYearOfBirth</t>
         </is>
       </c>
       <c r="P1" s="4" t="inlineStr">
         <is>
-          <t>fatherYearOfBirth</t>
+          <t>motherJob</t>
         </is>
       </c>
       <c r="Q1" s="4" t="inlineStr">
-        <is>
-          <t>fatherJob</t>
-        </is>
-      </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>motherName</t>
-        </is>
-      </c>
-      <c r="S1" s="4" t="inlineStr">
-        <is>
-          <t>motherYearOfBirth</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>motherJob</t>
-        </is>
-      </c>
-      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
@@ -609,38 +589,54 @@
           <t>27/03/2018</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>Tỉnh Bạc Liêu</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>Huyện Đông Hải</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="n"/>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Tỉnh An Giang</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Thành phố Long Xuyên</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>20a2, Nguyễn Thái Bình, Bình Khánh</t>
+        </is>
+      </c>
       <c r="K2" s="4" t="inlineStr">
         <is>
-          <t>Tỉnh Bạc Liêu</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>Huyện Đông Hải</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="4" t="n"/>
-      <c r="S2" s="4" t="n"/>
-      <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="inlineStr">
-        <is>
-          <t>Error</t>
+          <t>LÂM VĂN KÉN</t>
+        </is>
+      </c>
+      <c r="L2" s="7" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>Công Nhân Viên</t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
+          <t>NGUYỄN THỊ CHÂU HẰNG</t>
+        </is>
+      </c>
+      <c r="O2" s="7" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>Nội trợ</t>
+        </is>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
         </is>
       </c>
     </row>
@@ -695,57 +691,124 @@
           <t>20a2, Nguyễn Thái Bình, Bình Khánh</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>LÂM VĂN KÉN</t>
+        </is>
+      </c>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>Công Nhân Viên</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>NGUYỄN THỊ CHÂU HẰNG</t>
+        </is>
+      </c>
+      <c r="O3" s="7" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>Nội trợ</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Tỉnh An Giang</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Kinh (Việt)</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Khu vực 2</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>00 Không đối tượng</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>26/03/2018</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Tỉnh An Giang</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>Thành phố Long Xuyên</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>0706737586</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>20a2, Nguyễn Thái Bình, Bình Khánh</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>LÂM VĂN KÉN</t>
         </is>
       </c>
-      <c r="P3" s="7" t="inlineStr">
+      <c r="L4" s="7" t="inlineStr">
         <is>
           <t>1962</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>Công Nhân Viên</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>NGUYỄN THỊ CHÂU HẰNG</t>
         </is>
       </c>
-      <c r="S3" s="7" t="inlineStr">
+      <c r="O4" s="7" t="inlineStr">
         <is>
           <t>1964</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>Nội trợ</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
